--- a/image/codesystem.xlsx
+++ b/image/codesystem.xlsx
@@ -1253,45 +1253,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="111.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.16015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/codesystem.xlsx
+++ b/image/codesystem.xlsx
@@ -868,7 +868,7 @@
     <t>CodeSystem.filter.operator</t>
   </si>
   <si>
-    <t>Operators that can be used with filter</t>
+    <t>= | is-a | descendent-of | is-not-a | regex | in | not-in | generalizes | exists</t>
   </si>
   <si>
     <t>A list of operators that can be used with the filter.</t>

--- a/image/codesystem.xlsx
+++ b/image/codesystem.xlsx
@@ -868,7 +868,7 @@
     <t>CodeSystem.filter.operator</t>
   </si>
   <si>
-    <t>Operators that can be used with filter</t>
+    <t>= | is-a | descendent-of | is-not-a | regex | in | not-in | generalizes | exists</t>
   </si>
   <si>
     <t>A list of operators that can be used with the filter.</t>
@@ -1253,45 +1253,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="111.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.16015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/codesystem.xlsx
+++ b/image/codesystem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="353">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>CodeSystem.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the code system (Coding.version)</t>
@@ -1253,45 +1249,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="112.16015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.59765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="111.734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2661,16 +2657,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2738,10 +2734,10 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2749,7 +2745,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2772,19 +2768,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2833,7 +2829,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2842,7 +2838,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2862,7 +2858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2885,16 +2881,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2944,7 +2940,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2962,7 +2958,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2973,7 +2969,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2999,13 +2995,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3031,52 +3027,52 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3084,7 +3080,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3107,19 +3103,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3168,7 +3164,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3186,10 +3182,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3197,11 +3193,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3220,16 +3216,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3279,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3297,10 +3293,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3308,7 +3304,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3331,19 +3327,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3392,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3410,10 +3406,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3421,7 +3417,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3444,16 +3440,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3503,7 +3499,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3521,7 +3517,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3532,11 +3528,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3555,16 +3551,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3614,7 +3610,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3632,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3643,7 +3639,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3666,19 +3662,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3727,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3745,7 +3741,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3779,16 +3775,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3814,14 +3810,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3838,7 +3834,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3856,7 +3852,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3867,7 +3863,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3890,16 +3886,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3949,7 +3945,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3967,10 +3963,10 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>116</v>
@@ -3978,11 +3974,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4001,19 +3997,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4062,7 +4058,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4080,7 +4076,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4114,16 +4110,16 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4173,7 +4169,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4202,7 +4198,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4225,16 +4221,16 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4284,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4313,7 +4309,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4339,13 +4335,13 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4371,14 +4367,14 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4395,7 +4391,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4424,11 +4420,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4447,16 +4443,16 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4506,7 +4502,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4535,7 +4531,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4558,16 +4554,16 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4617,7 +4613,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4672,10 +4668,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4702,14 +4698,14 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>48</v>
@@ -4755,7 +4751,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4778,16 +4774,16 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4837,7 +4833,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4866,7 +4862,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4889,16 +4885,16 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4948,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4977,7 +4973,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5000,16 +4996,16 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5059,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5071,7 +5067,7 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -5088,7 +5084,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5111,13 +5107,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5168,22 +5164,22 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -5197,7 +5193,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5226,7 +5222,7 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>95</v>
@@ -5279,7 +5275,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5294,7 +5290,7 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
@@ -5308,11 +5304,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5334,10 +5330,10 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>95</v>
@@ -5392,7 +5388,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5421,7 +5417,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5447,10 +5443,10 @@
         <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5501,7 +5497,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>48</v>
@@ -5530,7 +5526,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5553,13 +5549,13 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5610,7 +5606,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5639,7 +5635,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5665,10 +5661,10 @@
         <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5695,14 +5691,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>48</v>
@@ -5748,7 +5744,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5771,13 +5767,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5828,7 +5824,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>48</v>
@@ -5857,7 +5853,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5880,13 +5876,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5937,7 +5933,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5949,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -5966,7 +5962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5989,13 +5985,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6046,22 +6042,22 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6075,7 +6071,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6104,7 +6100,7 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>95</v>
@@ -6157,7 +6153,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6172,7 +6168,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6186,11 +6182,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6212,10 +6208,10 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>95</v>
@@ -6270,7 +6266,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6299,7 +6295,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6325,10 +6321,10 @@
         <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6379,7 +6375,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -6408,7 +6404,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6434,10 +6430,10 @@
         <v>61</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6488,7 +6484,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6517,7 +6513,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6540,13 +6536,13 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6597,7 +6593,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6626,7 +6622,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6652,10 +6648,10 @@
         <v>67</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6682,14 +6678,14 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>48</v>
@@ -6735,7 +6731,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6758,16 +6754,16 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6817,7 +6813,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6829,7 +6825,7 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
@@ -6846,7 +6842,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6869,13 +6865,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6926,22 +6922,22 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -6955,7 +6951,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6984,7 +6980,7 @@
         <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>95</v>
@@ -7037,7 +7033,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7052,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -7066,11 +7062,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7092,10 +7088,10 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>95</v>
@@ -7150,7 +7146,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7179,7 +7175,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7205,10 +7201,10 @@
         <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7259,7 +7255,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>48</v>
@@ -7288,7 +7284,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7311,13 +7307,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7368,7 +7364,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7397,7 +7393,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7420,13 +7416,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7477,7 +7473,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7506,7 +7502,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7529,19 +7525,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7590,7 +7586,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7602,7 +7598,7 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -7619,7 +7615,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7642,13 +7638,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7699,22 +7695,22 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -7728,7 +7724,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7757,7 +7753,7 @@
         <v>93</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>95</v>
@@ -7810,7 +7806,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7825,7 +7821,7 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
@@ -7839,11 +7835,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7865,10 +7861,10 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>95</v>
@@ -7923,7 +7919,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7952,7 +7948,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7978,13 +7974,13 @@
         <v>67</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8034,7 +8030,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8063,7 +8059,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8086,16 +8082,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8121,14 +8117,14 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8145,7 +8141,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8174,7 +8170,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8197,13 +8193,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8254,7 +8250,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>48</v>
@@ -8283,7 +8279,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8306,13 +8302,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8363,7 +8359,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8375,7 +8371,7 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
@@ -8392,7 +8388,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8415,13 +8411,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8472,22 +8468,22 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -8501,7 +8497,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8530,7 +8526,7 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>95</v>
@@ -8583,7 +8579,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8598,7 +8594,7 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -8612,11 +8608,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8638,10 +8634,10 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>95</v>
@@ -8696,7 +8692,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8725,7 +8721,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8751,10 +8747,10 @@
         <v>67</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8805,7 +8801,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>48</v>
@@ -8834,7 +8830,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8857,13 +8853,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8914,7 +8910,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>48</v>
@@ -8943,7 +8939,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8969,10 +8965,10 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9023,7 +9019,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
